--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -460,10 +464,8 @@
         <v>5</v>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-08-26T14:56:45.596Z</t>
-        </is>
+      <c r="C2" s="2" t="n">
+        <v>45895.49774995371</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +482,8 @@
           <t>Excelente atendimento!!!</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-08-26T13:23:15.663Z</t>
-        </is>
+      <c r="C3" s="2" t="n">
+        <v>45895.43282017361</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,10 +496,8 @@
         <v>5</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2023-07-07T16:57:07.871Z</t>
-        </is>
+      <c r="C4" s="2" t="n">
+        <v>45114.58134109954</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,20 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
+        <v>45895.62649680555</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,13 +495,17 @@
       <c r="A4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
       <c r="C4" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45895.79028740741</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -511,9 +515,23 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
+        <v>45114.58134109954</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" s="2" t="n">
         <v>45895.62649680555</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,17 +495,13 @@
       <c r="A4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45896.68595259259</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -513,13 +509,17 @@
       <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
       <c r="C5" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45895.79028740741</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -529,9 +529,23 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
+        <v>45114.58134109954</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" s="2" t="n">
         <v>45895.62649680555</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,38 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45897.70520351852</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" s="2" t="n">
+        <v>45897.70435114583</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,11 +465,11 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>45895.49774995371</v>
+        <v>45898.53136140046</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
+          <t>OGE2MmVlZmEtMGI1YS00M2EzLWFmOTktYWMyMzA3MjVkYjYyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -477,17 +477,13 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Excelente atendimento!!!</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>45895.43282017361</v>
+        <v>45895.49774995371</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
+          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -495,13 +491,17 @@
       <c r="A4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Excelente atendimento!!!</t>
+        </is>
+      </c>
       <c r="C4" s="2" t="n">
-        <v>45896.68595259259</v>
+        <v>45895.43282017361</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
+          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -509,17 +509,13 @@
       <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45896.68595259259</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -527,13 +523,17 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
       <c r="C6" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45895.79028740741</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -543,41 +543,55 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C9" s="2" t="n">
+        <v>45897.70520351852</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" s="2" t="n">
         <v>45897.70435114583</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>45895.49774995371</v>
+        <v>45902.89908415509</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
+          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,13 @@
       <c r="A4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Excelente atendimento!!!</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>45895.43282017361</v>
+        <v>45895.49774995371</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
+          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -509,13 +505,17 @@
       <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Excelente atendimento!!!</t>
+        </is>
+      </c>
       <c r="C5" s="2" t="n">
-        <v>45896.68595259259</v>
+        <v>45895.43282017361</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
+          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,13 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45896.68595259259</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -541,13 +537,17 @@
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
       <c r="C7" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45895.79028740741</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -557,41 +557,55 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C10" s="2" t="n">
+        <v>45897.70520351852</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" s="2" t="n">
         <v>45897.70435114583</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,13 +477,17 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excelente atendimento </t>
+        </is>
+      </c>
       <c r="C3" s="2" t="n">
-        <v>45902.89908415509</v>
+        <v>45905.77066481482</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
+          <t>ODgxNWYzNjgtNjZlYy00YjFiLWFiZGMtZGVkNWIxNGE4ZDY1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -493,11 +497,11 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>45895.49774995371</v>
+        <v>45902.89908415509</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
+          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -505,17 +509,13 @@
       <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Excelente atendimento!!!</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>45895.43282017361</v>
+        <v>45895.49774995371</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
+          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -523,13 +523,17 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Excelente atendimento!!!</t>
+        </is>
+      </c>
       <c r="C6" s="2" t="n">
-        <v>45896.68595259259</v>
+        <v>45895.43282017361</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
+          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -537,17 +541,13 @@
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45896.68595259259</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -555,13 +555,17 @@
       <c r="A8" t="n">
         <v>5</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
       <c r="C8" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45895.79028740741</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -571,41 +575,55 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C11" s="2" t="n">
+        <v>45897.70520351852</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" s="2" t="n">
         <v>45897.70435114583</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,11 +497,11 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>45902.89908415509</v>
+        <v>45912.44327967593</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
+          <t>NjAwYjE5OTAtOGViYy00Y2Q1LWI4MzAtNzhkZTRlNjcxOWJiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -511,11 +511,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>45895.49774995371</v>
+        <v>45902.89908415509</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
+          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,13 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Excelente atendimento!!!</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>45895.43282017361</v>
+        <v>45895.49774995371</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
+          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -541,13 +537,17 @@
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Excelente atendimento!!!</t>
+        </is>
+      </c>
       <c r="C7" s="2" t="n">
-        <v>45896.68595259259</v>
+        <v>45895.43282017361</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
+          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -555,17 +555,13 @@
       <c r="A8" t="n">
         <v>5</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45896.68595259259</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -573,13 +569,17 @@
       <c r="A9" t="n">
         <v>5</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
       <c r="C9" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45895.79028740741</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -589,41 +589,55 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C12" s="2" t="n">
+        <v>45897.70520351852</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" s="2" t="n">
         <v>45897.70435114583</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,13 +509,18 @@
       <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ele efetuou a limpeza dos locais enferrujados e ensinou como efetuar a limpeza do inox para não riscar .
+Tirou foto dos produtos utilizados para analisar e ficou de dar um retorno.Serviço prestado de acordo.</t>
+        </is>
+      </c>
       <c r="C5" s="2" t="n">
-        <v>45902.89908415509</v>
+        <v>45912.71314665509</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
+          <t>Y2Y2NGI4MTktZmVjMi00YWEzLWE0NzctM2JiMDE0YzliZjU5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -525,11 +530,11 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>45895.49774995371</v>
+        <v>45902.89908415509</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
+          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -537,17 +542,13 @@
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Excelente atendimento!!!</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>45895.43282017361</v>
+        <v>45895.49774995371</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
+          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -555,13 +556,17 @@
       <c r="A8" t="n">
         <v>5</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Excelente atendimento!!!</t>
+        </is>
+      </c>
       <c r="C8" s="2" t="n">
-        <v>45896.68595259259</v>
+        <v>45895.43282017361</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
+          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -569,17 +574,13 @@
       <c r="A9" t="n">
         <v>5</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45896.68595259259</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -587,13 +588,17 @@
       <c r="A10" t="n">
         <v>5</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
       <c r="C10" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45895.79028740741</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -603,41 +608,55 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C13" s="2" t="n">
+        <v>45897.70520351852</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" s="2" t="n">
         <v>45897.70435114583</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +662,24 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,17 +588,13 @@
       <c r="A10" t="n">
         <v>5</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45919.53137916666</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -606,13 +602,17 @@
       <c r="A11" t="n">
         <v>5</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
       <c r="C11" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45895.79028740741</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -622,43 +622,43 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C14" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -666,15 +666,29 @@
       <c r="A15" t="n">
         <v>5</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" s="2" t="n">
+        <v>45897.70435114583</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">Colaborador muito atencioso. </t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C16" s="2" t="n">
         <v>45918.57075675926</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,11 +590,11 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>45919.53137916666</v>
+        <v>45919.59230513889</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
+          <t>MDZiY2UyZTQtNDM3Yy00MmY5LTk2NDktMzcwNzU4YWZjZWZlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,13 @@
       <c r="A11" t="n">
         <v>5</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45919.53137916666</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -620,13 +616,17 @@
       <c r="A12" t="n">
         <v>5</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
       <c r="C12" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45895.79028740741</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -636,29 +636,25 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -666,29 +662,65 @@
       <c r="A15" t="n">
         <v>5</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+        </is>
+      </c>
       <c r="C15" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45897.70520351852</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" s="2" t="n">
+        <v>45897.70435114583</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t xml:space="preserve">Colaborador muito atencioso. </t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C18" s="2" t="n">
         <v>45918.57075675926</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,13 +634,18 @@
       <c r="A13" t="n">
         <v>5</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rapaz atencioso e cordial. Obrigado </t>
+        </is>
+      </c>
       <c r="C13" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45926.50978196759</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZjZhZGU5MzktZGFiNC00YjdlLTgxN2EtYTkyYWM1ZWE5YjAzOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -650,11 +655,11 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -662,49 +667,49 @@
       <c r="A15" t="n">
         <v>5</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C17" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -712,15 +717,29 @@
       <c r="A18" t="n">
         <v>5</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
+        <v>45897.70435114583</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">Colaborador muito atencioso. </t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C19" s="2" t="n">
         <v>45918.57075675926</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,17 +731,45 @@
       <c r="A19" t="n">
         <v>5</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" s="2" t="n">
+        <v>45940.6359195949</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">Colaborador muito atencioso. </t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C20" s="2" t="n">
         <v>45918.57075675926</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" s="2" t="n">
+        <v>45940.63159275463</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>
       </c>
     </row>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,11 +604,11 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>45919.53137916666</v>
+        <v>45951.66084622685</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
+          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,13 @@
       <c r="A12" t="n">
         <v>5</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45919.53137916666</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -636,30 +632,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45895.79028740741</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Rapaz atencioso e cordial. Obrigado </t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C14" s="2" t="n">
         <v>45926.50978196759</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>ZjZhZGU5MzktZGFiNC00YjdlLTgxN2EtYTkyYWM1ZWE5YjAzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" s="2" t="n">
-        <v>45114.58134109954</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -669,11 +669,11 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -681,49 +681,49 @@
       <c r="A16" t="n">
         <v>5</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C18" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -733,11 +733,11 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -745,17 +745,13 @@
       <c r="A20" t="n">
         <v>5</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -763,11 +759,29 @@
       <c r="A21" t="n">
         <v>5</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C21" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,17 @@
       <c r="A15" t="n">
         <v>5</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Excelente produto com pós venda atencioso e competente.</t>
+        </is>
+      </c>
       <c r="C15" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45954.47363185186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -683,11 +687,11 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -695,49 +699,49 @@
       <c r="A17" t="n">
         <v>5</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C19" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -747,11 +751,11 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -759,17 +763,13 @@
       <c r="A21" t="n">
         <v>5</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -777,11 +777,29 @@
       <c r="A22" t="n">
         <v>5</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C22" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,47 +715,51 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C20" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -765,11 +769,11 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -777,17 +781,13 @@
       <c r="A22" t="n">
         <v>5</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -795,11 +795,29 @@
       <c r="A23" t="n">
         <v>5</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C23" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,15 +669,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Excelente produto com pós venda atencioso e competente.</t>
+          <t xml:space="preserve">Solução rápida e competente </t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45954.47363185186</v>
+        <v>45958.72571003472</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
+          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -685,13 +685,17 @@
       <c r="A16" t="n">
         <v>5</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Excelente produto com pós venda atencioso e competente.</t>
+        </is>
+      </c>
       <c r="C16" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45954.47363185186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -701,11 +705,11 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -713,17 +717,13 @@
       <c r="A18" t="n">
         <v>5</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>45954.49367453704</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -733,47 +733,51 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C21" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -783,11 +787,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -795,17 +799,13 @@
       <c r="A23" t="n">
         <v>5</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -813,11 +813,29 @@
       <c r="A24" t="n">
         <v>5</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C24" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,11 +604,11 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>45951.66084622685</v>
+        <v>45965.52277326389</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
+          <t>MmJmMjU1YjgtYWExNC00YjFjLTg5NWQtMGYxNGVmNDA2ZDRhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -618,11 +618,11 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>45919.53137916666</v>
+        <v>45951.66084622685</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
+          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,13 @@
       <c r="A13" t="n">
         <v>5</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45919.53137916666</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -650,34 +646,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45895.79028740741</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Rapaz atencioso e cordial. Obrigado </t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C15" s="2" t="n">
         <v>45926.50978196759</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>ZjZhZGU5MzktZGFiNC00YjdlLTgxN2EtYTkyYWM1ZWE5YjAzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solução rápida e competente </t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>45958.72571003472</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -687,15 +683,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Excelente produto com pós venda atencioso e competente.</t>
+          <t xml:space="preserve">Solução rápida e competente </t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45954.47363185186</v>
+        <v>45958.72571003472</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
+          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -703,13 +699,17 @@
       <c r="A17" t="n">
         <v>5</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Excelente produto com pós venda atencioso e competente.</t>
+        </is>
+      </c>
       <c r="C17" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45954.47363185186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -719,11 +719,11 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -731,17 +731,13 @@
       <c r="A19" t="n">
         <v>5</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
-        <v>45954.49367453704</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -751,47 +747,51 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C22" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -801,11 +801,11 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -813,17 +813,13 @@
       <c r="A24" t="n">
         <v>5</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -831,11 +827,29 @@
       <c r="A25" t="n">
         <v>5</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C25" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,15 +558,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Excelente atendimento!!!</t>
+          <t>Tudo solucionado.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45895.43282017361</v>
+        <v>45982.55324377315</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
+          <t>NTU0NzBmZGUtZTNlZS00OTBkLTlmN2MtZDNhNTM4ZGMyN2NiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -574,13 +574,17 @@
       <c r="A9" t="n">
         <v>5</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Excelente atendimento!!!</t>
+        </is>
+      </c>
       <c r="C9" s="2" t="n">
-        <v>45896.68595259259</v>
+        <v>45895.43282017361</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
+          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -590,11 +594,11 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>45919.59230513889</v>
+        <v>45896.68595259259</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MDZiY2UyZTQtNDM3Yy00MmY5LTk2NDktMzcwNzU4YWZjZWZlOjU3MDE2</t>
+          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -604,11 +608,11 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>45965.52277326389</v>
+        <v>45919.59230513889</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MmJmMjU1YjgtYWExNC00YjFjLTg5NWQtMGYxNGVmNDA2ZDRhOjU3MDE2</t>
+          <t>MDZiY2UyZTQtNDM3Yy00MmY5LTk2NDktMzcwNzU4YWZjZWZlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -618,11 +622,11 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>45951.66084622685</v>
+        <v>45965.52277326389</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
+          <t>MmJmMjU1YjgtYWExNC00YjFjLTg5NWQtMGYxNGVmNDA2ZDRhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -632,11 +636,11 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>45919.53137916666</v>
+        <v>45951.66084622685</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
+          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -644,17 +648,13 @@
       <c r="A14" t="n">
         <v>5</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45919.53137916666</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -664,34 +664,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45895.79028740741</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Rapaz atencioso e cordial. Obrigado </t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C16" s="2" t="n">
         <v>45926.50978196759</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>ZjZhZGU5MzktZGFiNC00YjdlLTgxN2EtYTkyYWM1ZWE5YjAzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solução rápida e competente </t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>45958.72571003472</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -701,15 +701,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Excelente produto com pós venda atencioso e competente.</t>
+          <t xml:space="preserve">Solução rápida e competente </t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45954.47363185186</v>
+        <v>45958.72571003472</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
+          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -717,13 +717,17 @@
       <c r="A18" t="n">
         <v>5</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Excelente produto com pós venda atencioso e competente.</t>
+        </is>
+      </c>
       <c r="C18" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45954.47363185186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -733,11 +737,11 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -745,17 +749,13 @@
       <c r="A20" t="n">
         <v>5</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>45954.49367453704</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -765,61 +765,69 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+        </is>
+      </c>
       <c r="C23" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45982.55515303241</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -827,17 +835,13 @@
       <c r="A25" t="n">
         <v>5</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -847,9 +851,41 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
+        <v>45940.6359195949</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,11 +530,11 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>45902.89908415509</v>
+        <v>45986.45500729167</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
+          <t>MzFmMDgzY2ItODY1MC00N2NkLTg1MjctMzhjMzM4NzRkNDNhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -544,11 +544,11 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>45895.49774995371</v>
+        <v>45902.89908415509</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
+          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,13 @@
       <c r="A8" t="n">
         <v>5</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tudo solucionado.</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>45982.55324377315</v>
+        <v>45895.49774995371</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NTU0NzBmZGUtZTNlZS00OTBkLTlmN2MtZDNhNTM4ZGMyN2NiOjU3MDE2</t>
+          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -576,15 +572,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Excelente atendimento!!!</t>
+          <t>Tudo solucionado.</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45895.43282017361</v>
+        <v>45982.55324377315</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
+          <t>NTU0NzBmZGUtZTNlZS00OTBkLTlmN2MtZDNhNTM4ZGMyN2NiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -592,13 +588,17 @@
       <c r="A10" t="n">
         <v>5</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Excelente atendimento!!!</t>
+        </is>
+      </c>
       <c r="C10" s="2" t="n">
-        <v>45896.68595259259</v>
+        <v>45895.43282017361</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
+          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -608,11 +608,11 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>45919.59230513889</v>
+        <v>45896.68595259259</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MDZiY2UyZTQtNDM3Yy00MmY5LTk2NDktMzcwNzU4YWZjZWZlOjU3MDE2</t>
+          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -622,11 +622,11 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>45965.52277326389</v>
+        <v>45919.59230513889</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MmJmMjU1YjgtYWExNC00YjFjLTg5NWQtMGYxNGVmNDA2ZDRhOjU3MDE2</t>
+          <t>MDZiY2UyZTQtNDM3Yy00MmY5LTk2NDktMzcwNzU4YWZjZWZlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -636,11 +636,11 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>45951.66084622685</v>
+        <v>45965.52277326389</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
+          <t>MmJmMjU1YjgtYWExNC00YjFjLTg5NWQtMGYxNGVmNDA2ZDRhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -650,11 +650,11 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>45919.53137916666</v>
+        <v>45951.66084622685</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
+          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -662,17 +662,13 @@
       <c r="A15" t="n">
         <v>5</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45919.53137916666</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -682,34 +678,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45895.79028740741</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Rapaz atencioso e cordial. Obrigado </t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C17" s="2" t="n">
         <v>45926.50978196759</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>ZjZhZGU5MzktZGFiNC00YjdlLTgxN2EtYTkyYWM1ZWE5YjAzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solução rápida e competente </t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45958.72571003472</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -719,15 +715,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Excelente produto com pós venda atencioso e competente.</t>
+          <t xml:space="preserve">Solução rápida e competente </t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45954.47363185186</v>
+        <v>45958.72571003472</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
+          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -735,13 +731,17 @@
       <c r="A19" t="n">
         <v>5</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Excelente produto com pós venda atencioso e competente.</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45954.47363185186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -751,11 +751,11 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -763,17 +763,13 @@
       <c r="A21" t="n">
         <v>5</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>45954.49367453704</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -783,65 +779,69 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45982.55515303241</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+        </is>
+      </c>
       <c r="C25" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45982.55515303241</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -851,11 +851,11 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -863,17 +863,13 @@
       <c r="A27" t="n">
         <v>5</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -881,11 +877,29 @@
       <c r="A28" t="n">
         <v>5</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C28" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,19 +475,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excelente atendimento </t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>45905.77066481482</v>
+        <v>46001.65142589121</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ODgxNWYzNjgtNjZlYy00YjFiLWFiZGMtZGVkNWIxNGE4ZDY1OjU3MDE2</t>
+          <t>YTU1MjU5YTEtYTBkNy00ZDg5LWE5ZDAtN2M1MDIyODc2ZWZhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -495,13 +491,17 @@
       <c r="A4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excelente atendimento </t>
+        </is>
+      </c>
       <c r="C4" s="2" t="n">
-        <v>45912.44327967593</v>
+        <v>45905.77066481482</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NjAwYjE5OTAtOGViYy00Y2Q1LWI4MzAtNzhkZTRlNjcxOWJiOjU3MDE2</t>
+          <t>ODgxNWYzNjgtNjZlYy00YjFiLWFiZGMtZGVkNWIxNGE4ZDY1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -509,32 +509,32 @@
       <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
+        <v>45912.44327967593</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NjAwYjE5OTAtOGViYy00Y2Q1LWI4MzAtNzhkZTRlNjcxOWJiOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ele efetuou a limpeza dos locais enferrujados e ensinou como efetuar a limpeza do inox para não riscar .
 Tirou foto dos produtos utilizados para analisar e ficou de dar um retorno.Serviço prestado de acordo.</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C6" s="2" t="n">
         <v>45912.71314665509</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Y2Y2NGI4MTktZmVjMi00YWEzLWE0NzctM2JiMDE0YzliZjU5OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" s="2" t="n">
-        <v>45986.45500729167</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MzFmMDgzY2ItODY1MC00N2NkLTg1MjctMzhjMzM4NzRkNDNhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -544,11 +544,11 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>45902.89908415509</v>
+        <v>45986.45500729167</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
+          <t>MzFmMDgzY2ItODY1MC00N2NkLTg1MjctMzhjMzM4NzRkNDNhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -558,11 +558,11 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>45895.49774995371</v>
+        <v>45902.89908415509</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
+          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -570,17 +570,13 @@
       <c r="A9" t="n">
         <v>5</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Tudo solucionado.</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>45982.55324377315</v>
+        <v>45895.49774995371</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NTU0NzBmZGUtZTNlZS00OTBkLTlmN2MtZDNhNTM4ZGMyN2NiOjU3MDE2</t>
+          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -590,15 +586,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Excelente atendimento!!!</t>
+          <t>Tudo solucionado.</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45895.43282017361</v>
+        <v>45982.55324377315</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
+          <t>NTU0NzBmZGUtZTNlZS00OTBkLTlmN2MtZDNhNTM4ZGMyN2NiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -606,13 +602,17 @@
       <c r="A11" t="n">
         <v>5</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Excelente atendimento!!!</t>
+        </is>
+      </c>
       <c r="C11" s="2" t="n">
-        <v>45896.68595259259</v>
+        <v>45895.43282017361</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
+          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -622,11 +622,11 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>45919.59230513889</v>
+        <v>45896.68595259259</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MDZiY2UyZTQtNDM3Yy00MmY5LTk2NDktMzcwNzU4YWZjZWZlOjU3MDE2</t>
+          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -636,11 +636,11 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>45965.52277326389</v>
+        <v>45919.59230513889</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MmJmMjU1YjgtYWExNC00YjFjLTg5NWQtMGYxNGVmNDA2ZDRhOjU3MDE2</t>
+          <t>MDZiY2UyZTQtNDM3Yy00MmY5LTk2NDktMzcwNzU4YWZjZWZlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -650,11 +650,11 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>45951.66084622685</v>
+        <v>45965.52277326389</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
+          <t>MmJmMjU1YjgtYWExNC00YjFjLTg5NWQtMGYxNGVmNDA2ZDRhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -664,11 +664,11 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>45919.53137916666</v>
+        <v>45951.66084622685</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
+          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,13 @@
       <c r="A16" t="n">
         <v>5</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45919.53137916666</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -696,34 +692,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Agradecido pelo apoio!!!</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45895.79028740741</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Rapaz atencioso e cordial. Obrigado </t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C18" s="2" t="n">
         <v>45926.50978196759</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>ZjZhZGU5MzktZGFiNC00YjdlLTgxN2EtYTkyYWM1ZWE5YjAzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solução rápida e competente </t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45958.72571003472</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -733,15 +729,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Excelente produto com pós venda atencioso e competente.</t>
+          <t xml:space="preserve">Solução rápida e competente </t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45954.47363185186</v>
+        <v>45958.72571003472</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
+          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -749,13 +745,17 @@
       <c r="A20" t="n">
         <v>5</v>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Excelente produto com pós venda atencioso e competente.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45954.47363185186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -765,11 +765,11 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -777,17 +777,13 @@
       <c r="A22" t="n">
         <v>5</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>45954.49367453704</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -797,65 +793,69 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45982.55515303241</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+        </is>
+      </c>
       <c r="C26" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45982.55515303241</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -865,11 +865,11 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -877,17 +877,13 @@
       <c r="A28" t="n">
         <v>5</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -895,11 +891,29 @@
       <c r="A29" t="n">
         <v>5</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C29" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,34 +710,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Colaborador bastante atencioso e demonstrou conhecimento do serviço a ser realizado.</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>46002.57819354167</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OWQ3MmJiNzktNzkxMy00NDg4LWFjOTItOWRlOWMyOTQ1NmZkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Rapaz atencioso e cordial. Obrigado </t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C19" s="2" t="n">
         <v>45926.50978196759</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>ZjZhZGU5MzktZGFiNC00YjdlLTgxN2EtYTkyYWM1ZWE5YjAzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solução rápida e competente </t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45958.72571003472</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -747,15 +747,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Excelente produto com pós venda atencioso e competente.</t>
+          <t xml:space="preserve">Solução rápida e competente </t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45954.47363185186</v>
+        <v>45958.72571003472</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
+          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -763,13 +763,17 @@
       <c r="A21" t="n">
         <v>5</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Excelente produto com pós venda atencioso e competente.</t>
+        </is>
+      </c>
       <c r="C21" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>45954.47363185186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -779,11 +783,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -791,17 +795,13 @@
       <c r="A23" t="n">
         <v>5</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>45954.49367453704</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -811,65 +811,69 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45982.55515303241</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45982.55515303241</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -879,11 +883,11 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -891,17 +895,13 @@
       <c r="A29" t="n">
         <v>5</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -909,11 +909,29 @@
       <c r="A30" t="n">
         <v>5</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C30" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,11 +797,11 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>46006.64905208333</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>YmIzNjc4MmUtMjk5Mi00NTY3LWE5ZTEtY2VkYTU4MWM3N2NlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -809,17 +809,13 @@
       <c r="A24" t="n">
         <v>5</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>45954.49367453704</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -829,65 +825,69 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45982.55515303241</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45982.55515303241</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -897,11 +897,11 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -909,17 +909,13 @@
       <c r="A30" t="n">
         <v>5</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -927,11 +923,29 @@
       <c r="A31" t="n">
         <v>5</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C31" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,11 +783,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>46006.74939984953</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZmYzMjBkNWUtOWQ5YS00MDFiLTk2NmItZTBlMGFlNjE3YmZiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -797,11 +797,11 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>46006.64905208333</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>YmIzNjc4MmUtMjk5Mi00NTY3LWE5ZTEtY2VkYTU4MWM3N2NlOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -811,11 +811,11 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>46006.64905208333</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>YmIzNjc4MmUtMjk5Mi00NTY3LWE5ZTEtY2VkYTU4MWM3N2NlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -823,17 +823,13 @@
       <c r="A25" t="n">
         <v>5</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>45954.49367453704</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -843,65 +839,69 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45982.55515303241</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
-      </c>
-      <c r="B29" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+        </is>
+      </c>
       <c r="C29" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45982.55515303241</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -911,11 +911,11 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -923,17 +923,13 @@
       <c r="A31" t="n">
         <v>5</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -941,11 +937,29 @@
       <c r="A32" t="n">
         <v>5</v>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C32" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,11 +664,11 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>45951.66084622685</v>
+        <v>46010.46702450232</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
+          <t>NmNjY2Q0MzYtNWI4ZS00ODk3LTgyZDItNTFkNWMxNWFjYzA5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -678,11 +678,11 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>45919.53137916666</v>
+        <v>45951.66084622685</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
+          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -690,17 +690,13 @@
       <c r="A17" t="n">
         <v>5</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45919.53137916666</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -710,15 +706,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Colaborador bastante atencioso e demonstrou conhecimento do serviço a ser realizado.</t>
+          <t>Agradecido pelo apoio!!!</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>46002.57819354167</v>
+        <v>45895.79028740741</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OWQ3MmJiNzktNzkxMy00NDg4LWFjOTItOWRlOWMyOTQ1NmZkOjU3MDE2</t>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -728,34 +724,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Colaborador bastante atencioso e demonstrou conhecimento do serviço a ser realizado.</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>46002.57819354167</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>OWQ3MmJiNzktNzkxMy00NDg4LWFjOTItOWRlOWMyOTQ1NmZkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Rapaz atencioso e cordial. Obrigado </t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C20" s="2" t="n">
         <v>45926.50978196759</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>ZjZhZGU5MzktZGFiNC00YjdlLTgxN2EtYTkyYWM1ZWE5YjAzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solução rápida e competente </t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45958.72571003472</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -765,15 +761,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Excelente produto com pós venda atencioso e competente.</t>
+          <t xml:space="preserve">Solução rápida e competente </t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45954.47363185186</v>
+        <v>45958.72571003472</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
+          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -781,13 +777,17 @@
       <c r="A22" t="n">
         <v>5</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Excelente produto com pós venda atencioso e competente.</t>
+        </is>
+      </c>
       <c r="C22" s="2" t="n">
-        <v>46006.74939984953</v>
+        <v>45954.47363185186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ZmYzMjBkNWUtOWQ5YS00MDFiLTk2NmItZTBlMGFlNjE3YmZiOjU3MDE2</t>
+          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -797,11 +797,11 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>46006.74939984953</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZmYzMjBkNWUtOWQ5YS00MDFiLTk2NmItZTBlMGFlNjE3YmZiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -811,11 +811,11 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>46006.64905208333</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>YmIzNjc4MmUtMjk5Mi00NTY3LWE5ZTEtY2VkYTU4MWM3N2NlOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -825,11 +825,11 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>46006.64905208333</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>YmIzNjc4MmUtMjk5Mi00NTY3LWE5ZTEtY2VkYTU4MWM3N2NlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,13 @@
       <c r="A26" t="n">
         <v>5</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>45954.49367453704</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -857,65 +853,69 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45982.55515303241</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45982.55515303241</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -925,11 +925,11 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -937,17 +937,13 @@
       <c r="A32" t="n">
         <v>5</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -955,11 +951,29 @@
       <c r="A33" t="n">
         <v>5</v>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C33" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,43 +465,39 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>45898.53136140046</v>
+        <v>46034.61868471065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OGE2MmVlZmEtMGI1YS00M2EzLWFmOTktYWMyMzA3MjVkYjYyOjU3MDE2</t>
+          <t>OWY1NGRiM2EtMjUxMy00YzZjLTg0ZDctMTBhZGU5MjQzZjY2OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>46001.65142589121</v>
+        <v>45898.53136140046</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>YTU1MjU5YTEtYTBkNy00ZDg5LWE5ZDAtN2M1MDIyODc2ZWZhOjU3MDE2</t>
+          <t>OGE2MmVlZmEtMGI1YS00M2EzLWFmOTktYWMyMzA3MjVkYjYyOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excelente atendimento </t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>45905.77066481482</v>
+        <v>46001.65142589121</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ODgxNWYzNjgtNjZlYy00YjFiLWFiZGMtZGVkNWIxNGE4ZDY1OjU3MDE2</t>
+          <t>YTU1MjU5YTEtYTBkNy00ZDg5LWE5ZDAtN2M1MDIyODc2ZWZhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -509,13 +505,17 @@
       <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excelente atendimento </t>
+        </is>
+      </c>
       <c r="C5" s="2" t="n">
-        <v>45912.44327967593</v>
+        <v>45905.77066481482</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NjAwYjE5OTAtOGViYy00Y2Q1LWI4MzAtNzhkZTRlNjcxOWJiOjU3MDE2</t>
+          <t>ODgxNWYzNjgtNjZlYy00YjFiLWFiZGMtZGVkNWIxNGE4ZDY1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -523,32 +523,32 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" s="2" t="n">
+        <v>45912.44327967593</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NjAwYjE5OTAtOGViYy00Y2Q1LWI4MzAtNzhkZTRlNjcxOWJiOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ele efetuou a limpeza dos locais enferrujados e ensinou como efetuar a limpeza do inox para não riscar .
 Tirou foto dos produtos utilizados para analisar e ficou de dar um retorno.Serviço prestado de acordo.</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C7" s="2" t="n">
         <v>45912.71314665509</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Y2Y2NGI4MTktZmVjMi00YWEzLWE0NzctM2JiMDE0YzliZjU5OjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" s="2" t="n">
-        <v>45986.45500729167</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MzFmMDgzY2ItODY1MC00N2NkLTg1MjctMzhjMzM4NzRkNDNhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -558,11 +558,11 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>45902.89908415509</v>
+        <v>45986.45500729167</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
+          <t>MzFmMDgzY2ItODY1MC00N2NkLTg1MjctMzhjMzM4NzRkNDNhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -572,11 +572,11 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>45895.49774995371</v>
+        <v>45902.89908415509</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
+          <t>MzM3NmJjMjQtMTRmMi00NjgxLWI4ZmQtZjJmNjQwMjkxNzhkOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -584,17 +584,13 @@
       <c r="A10" t="n">
         <v>5</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Tudo solucionado.</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>45982.55324377315</v>
+        <v>45895.49774995371</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NTU0NzBmZGUtZTNlZS00OTBkLTlmN2MtZDNhNTM4ZGMyN2NiOjU3MDE2</t>
+          <t>NjM1Zjk4NmEtZjFkNy00MTJiLTkzYmMtNDIwZjFmZmE0ZWIxOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -604,15 +600,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Excelente atendimento!!!</t>
+          <t>Tudo solucionado.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45895.43282017361</v>
+        <v>45982.55324377315</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
+          <t>NTU0NzBmZGUtZTNlZS00OTBkLTlmN2MtZDNhNTM4ZGMyN2NiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -620,13 +616,17 @@
       <c r="A12" t="n">
         <v>5</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Excelente atendimento!!!</t>
+        </is>
+      </c>
       <c r="C12" s="2" t="n">
-        <v>45896.68595259259</v>
+        <v>45895.43282017361</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
+          <t>M2ZkMjljOWYtMmE0NC00YWVhLWI0ODgtODUxMjFjMWI0YmQwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -636,11 +636,11 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>45919.59230513889</v>
+        <v>45896.68595259259</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MDZiY2UyZTQtNDM3Yy00MmY5LTk2NDktMzcwNzU4YWZjZWZlOjU3MDE2</t>
+          <t>Y2FlMmFjMDMtYmU0ZS00NzQwLTliMmMtOWM2OWUyZTA3NzAzOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -650,11 +650,11 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>45965.52277326389</v>
+        <v>45919.59230513889</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MmJmMjU1YjgtYWExNC00YjFjLTg5NWQtMGYxNGVmNDA2ZDRhOjU3MDE2</t>
+          <t>MDZiY2UyZTQtNDM3Yy00MmY5LTk2NDktMzcwNzU4YWZjZWZlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -664,11 +664,11 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>46010.46702450232</v>
+        <v>45965.52277326389</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NmNjY2Q0MzYtNWI4ZS00ODk3LTgyZDItNTFkNWMxNWFjYzA5OjU3MDE2</t>
+          <t>MmJmMjU1YjgtYWExNC00YjFjLTg5NWQtMGYxNGVmNDA2ZDRhOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -678,11 +678,11 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>45951.66084622685</v>
+        <v>46010.46702450232</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
+          <t>NmNjY2Q0MzYtNWI4ZS00ODk3LTgyZDItNTFkNWMxNWFjYzA5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -692,11 +692,11 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>45919.53137916666</v>
+        <v>45951.66084622685</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
+          <t>MjRkNTkzODMtN2IzMC00N2JhLWI1ZDQtNjYwNDFhNjUxZTU1OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -704,17 +704,13 @@
       <c r="A18" t="n">
         <v>5</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Agradecido pelo apoio!!!</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>45895.79028740741</v>
+        <v>45919.53137916666</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
+          <t>YWMxNDdmNmMtMThiZS00MDJmLThmYTEtM2E4MGZlYzY0MTRiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -724,15 +720,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Colaborador bastante atencioso e demonstrou conhecimento do serviço a ser realizado.</t>
+          <t>Agradecido pelo apoio!!!</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>46002.57819354167</v>
+        <v>45895.79028740741</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OWQ3MmJiNzktNzkxMy00NDg4LWFjOTItOWRlOWMyOTQ1NmZkOjU3MDE2</t>
+          <t>ZDc1MjI5MGQtODAzYy00Y2EzLThlYTktY2ZkOGY5ZmJlNDI5OjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -742,34 +738,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Colaborador bastante atencioso e demonstrou conhecimento do serviço a ser realizado.</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>46002.57819354167</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>OWQ3MmJiNzktNzkxMy00NDg4LWFjOTItOWRlOWMyOTQ1NmZkOjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Rapaz atencioso e cordial. Obrigado </t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C21" s="2" t="n">
         <v>45926.50978196759</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>ZjZhZGU5MzktZGFiNC00YjdlLTgxN2EtYTkyYWM1ZWE5YjAzOjU3MDE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solução rápida e competente </t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45958.72571003472</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -779,15 +775,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Excelente produto com pós venda atencioso e competente.</t>
+          <t xml:space="preserve">Solução rápida e competente </t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45954.47363185186</v>
+        <v>45958.72571003472</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
+          <t>OTcxNWNiMjktMWZhMC00NTg2LWExNmYtYWVlYzAwNDkyMWNlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -795,13 +791,17 @@
       <c r="A23" t="n">
         <v>5</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Excelente produto com pós venda atencioso e competente.</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="n">
-        <v>46006.74939984953</v>
+        <v>45954.47363185186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ZmYzMjBkNWUtOWQ5YS00MDFiLTk2NmItZTBlMGFlNjE3YmZiOjU3MDE2</t>
+          <t>ZDhlNGM1NDAtZWMwMy00OGRlLWE0ZDktM2JlODM0YzJhMWYwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -811,11 +811,11 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>46006.74939984953</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZmYzMjBkNWUtOWQ5YS00MDFiLTk2NmItZTBlMGFlNjE3YmZiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -825,11 +825,11 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>46006.64905208333</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>YmIzNjc4MmUtMjk5Mi00NTY3LWE5ZTEtY2VkYTU4MWM3N2NlOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -839,11 +839,11 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>46006.64905208333</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>YmIzNjc4MmUtMjk5Mi00NTY3LWE5ZTEtY2VkYTU4MWM3N2NlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -851,17 +851,13 @@
       <c r="A27" t="n">
         <v>5</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>45954.49367453704</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -871,65 +867,69 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45982.55515303241</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
-      </c>
-      <c r="B31" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45982.55515303241</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -939,11 +939,11 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,13 @@
       <c r="A33" t="n">
         <v>5</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -969,11 +965,29 @@
       <c r="A34" t="n">
         <v>5</v>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C34" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>

--- a/avaliacoes_garantia.xlsx
+++ b/avaliacoes_garantia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,13 +809,18 @@
       <c r="A24" t="n">
         <v>5</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Técnico 
+Ótimo relacionamento com o cliente </t>
+        </is>
+      </c>
       <c r="C24" s="2" t="n">
-        <v>46006.74939984953</v>
+        <v>46043.57604188658</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ZmYzMjBkNWUtOWQ5YS00MDFiLTk2NmItZTBlMGFlNjE3YmZiOjU3MDE2</t>
+          <t>NjBmNTZjNjctMjFmYy00ZjU4LTg0NTItZDViMWVlZTE3NDUwOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -825,11 +830,11 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>45114.58134109954</v>
+        <v>46006.74939984953</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
+          <t>ZmYzMjBkNWUtOWQ5YS00MDFiLTk2NmItZTBlMGFlNjE3YmZiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -839,11 +844,11 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>46006.64905208333</v>
+        <v>45114.58134109954</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>YmIzNjc4MmUtMjk5Mi00NTY3LWE5ZTEtY2VkYTU4MWM3N2NlOjU3MDE2</t>
+          <t>MzA4YThhOWQtYjY4NS00MGZmLWE1NWItNjEwMDM4N2M1MjFiOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -853,11 +858,11 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>45895.62649680555</v>
+        <v>46006.64905208333</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
+          <t>YmIzNjc4MmUtMjk5Mi00NTY3LWE5ZTEtY2VkYTU4MWM3N2NlOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -865,17 +870,13 @@
       <c r="A28" t="n">
         <v>5</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
-        <v>45954.49367453704</v>
+        <v>45895.62649680555</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
+          <t>NjMzNDFkZTQtNWEwYi00MGVhLWE0YTMtZDEzMmM1YjFjNmUyOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -885,65 +886,69 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
+          <t>O equipamento agora está funcionando perfeitamente. Ainda não testamos para a esterilização do nosso produto. Mas acredito que vai da tudo certo.</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45919.58513085648</v>
+        <v>45954.49367453704</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
+          <t>ZjIwMzgwNmItMDdmNy00OWM3LWIxMzEtYTVhZjkwNDM0OGQzOjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
+          <t xml:space="preserve">Parece que vocês estão dando um rumo melhor no atendimento </t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45897.70520351852</v>
+        <v>45919.58513085648</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
+          <t>NzA2MGY5NmYtZmUwZi00NTc2LTlmMDAtZjMzM2NjYzJmYWI1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+          <t xml:space="preserve">Pelo q.acompanhei ele fez o serviço mas uma das geladeiras continua sem baixar a temperatura ela chega no mínimo 10 graus </t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45982.55515303241</v>
+        <v>45897.70520351852</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
+          <t>ZjJlMGMyZjMtOWY2Yy00Yzc4LTllZmItMGM5MDE5ZjRjZmU1OjU3MDE2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
-      </c>
-      <c r="B32" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>O colaborador Julio Francisco fez deu aperto em uma braçadeira que estava solta além de colocar um novo parafuso, porém não trocou a gaxeta da porta pois o arrebite é diferente</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="n">
-        <v>45897.70435114583</v>
+        <v>45982.55515303241</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
+          <t>OTc0ZmNmYTQtZTVjNi00MWQzLWI4OTQtNDI4YjYxYzcxMDRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -953,11 +958,11 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
-        <v>45940.6359195949</v>
+        <v>45897.70435114583</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
+          <t>ZGZmYTBjMjEtN2ZiOC00NTUzLTg2NDEtODg4ZWJlNTI2ZWRjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -965,17 +970,13 @@
       <c r="A34" t="n">
         <v>5</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colaborador muito atencioso. </t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
-        <v>45918.57075675926</v>
+        <v>45940.6359195949</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+          <t>ZDljNWUxNGUtNDI1OS00ZTZhLWEzZmMtODlmMmZkMzNlMzBjOjU3MDE2</t>
         </is>
       </c>
     </row>
@@ -983,11 +984,29 @@
       <c r="A35" t="n">
         <v>5</v>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colaborador muito atencioso. </t>
+        </is>
+      </c>
       <c r="C35" s="2" t="n">
+        <v>45918.57075675926</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Yzg4MTJkNjgtYzBhOS00ODY0LWE3NmItMjMzN2ZkMWUwODA2OjU3MDE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" s="2" t="n">
         <v>45940.63159275463</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>NzYxOTRkMzgtZDQwNy00ODM5LWI5NDctYzJkMTczZDkzZGQzOjU3MDE2</t>
         </is>
